--- a/graphs/readings-vs-anenometers.xlsx
+++ b/graphs/readings-vs-anenometers.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw ultrasonic" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,10 +23,68 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+  <si>
+    <t>Ambient</t>
+  </si>
+  <si>
+    <t>Grey (1/4)</t>
+  </si>
+  <si>
+    <t>Grey (2/4)</t>
+  </si>
+  <si>
+    <t>Grey (3/4)</t>
+  </si>
+  <si>
+    <t>Grey (4/4)</t>
+  </si>
+  <si>
+    <t>Black (1/3)</t>
+  </si>
+  <si>
+    <t>Black (2/3)</t>
+  </si>
+  <si>
+    <t>Black (3/3)</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Measured Averages</t>
+  </si>
+  <si>
+    <t>Anemometer Readings</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Front behind 'P'</t>
+  </si>
+  <si>
+    <t>19.99C</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -54,8 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +133,2417 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Propagation Time at Various</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Wind Speeds</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ambient</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>324.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>324.35500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324.36700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324.38299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>324.47500000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>324.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>324.43700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>324.435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324.46100000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324.428</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>324.40800000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>324.42</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>324.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>324.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>324.36399999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>324.36200000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>324.39600000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>324.41399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>324.435</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>324.43799999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>324.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>324.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>324.45600000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>324.44600000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>324.44200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>324.42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>324.39600000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>324.38600000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>324.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>324.40499999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>324.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>324.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>324.37700000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>324.51900000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>324.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>324.483</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>324.488</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>324.44400000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>324.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>324.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>324.40600000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>324.40300000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>324.47899999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>324.46600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>324.50099999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>324.39800000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>324.375</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>324.37200000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>324.37900000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grey (1/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>322.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>322.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322.56700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322.57299999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.56099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322.58699999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.55900000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>322.61599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322.56299999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>322.52499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322.57499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>322.58100000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>322.589</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322.63</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>322.55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>322.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>322.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>322.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>322.55700000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>322.57799999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>322.589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>322.625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322.57100000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>322.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>322.61799999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>322.55700000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>322.56599999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>322.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>322.56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>322.565</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>322.61500000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>322.56799999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>322.64699999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322.625</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>322.59500000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>322.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>322.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>322.54500000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>322.59199999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>322.59300000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>322.608</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>322.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>322.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>322.67399999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grey (2/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>321.84399999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.89499999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.86399999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.83499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.89600000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.90199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321.92899999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.85199999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.846</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.82600000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.83699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.82299999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321.88200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321.84100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>321.875</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.78800000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.88099999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.863</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.87200000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321.84800000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321.82100000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321.834</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>321.85300000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321.82799999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>321.88400000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321.94400000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>321.89600000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>321.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.822</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>321.86500000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>321.83800000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>321.822</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>321.851</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>321.86599999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>321.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>321.85700000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>321.90300000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>321.85599999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>321.79399999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>321.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>321.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grey (3/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>321.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321.21899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.34399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.29599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.21800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.29700000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.31599999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321.18900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321.23700000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321.161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.32100000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.21699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.23399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.12299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.267</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.29899999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.30599999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321.31099999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321.25799999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>321.24700000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.41899999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.41699999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.36099999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321.221</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321.31400000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321.32299999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>321.24599999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321.14800000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321.31799999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>321.24900000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>321.37099999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>321.16199999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>321.26100000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>321.31900000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>321.31200000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>321.30900000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>321.274</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>321.26900000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>321.32400000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>321.28399999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>321.30200000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>321.28100000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>321.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>321.26799999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grey (4/4)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>319.97899999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.05700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>320.44099999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>320.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>320.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>320.25099999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320.58300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>320.37599999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320.358</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>320.00099999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>320.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>320.226</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>319.87900000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>320.267</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>320.20299999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319.92399999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>320.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>319.416</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>319.84699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>319.34500000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>319.80399999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>320.072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>319.702</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>319.93099999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>319.637</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>319.411</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>319.517</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>319.45100000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>319.822</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>319.62900000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>319.91899999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>319.70600000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>319.928</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>320.12400000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>320.512</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>320.38299999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>320.24</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>319.67</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>319.988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>319.30399999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>319.78399999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>320.22899999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>320.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>320.26</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>319.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>319.71899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black (1/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>322.12099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322.14400000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>322.13600000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322.166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>322.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.16500000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>322.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>322.14299999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>322.108</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>322.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>322.10199999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>322.15499999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>322.173</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>322.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>322.13400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>322.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>322.14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>322.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>322.096</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>322.101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>322.096</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>322.13799999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>322.09100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>322.072</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>322.09800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>322.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322.101</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>322.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>322.06799999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>322.05500000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>322.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>322.08600000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>322.08499999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>322.07100000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>322.07900000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>322.09300000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>322.10399999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>322.154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>322.10300000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>322.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>322.137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>322.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>322.173</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>322.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>322.15600000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>322.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>322.113</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>322.12599999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>322.13299999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black (2/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$G$2:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>321.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321.57900000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.61200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.63299999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.61</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.685</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321.71499999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321.71899999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321.68099999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.69</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.642</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.69799999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.67500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.63600000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.64499999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321.649</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>321.661</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.62599999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.608</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.66800000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.67</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321.63900000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321.60199999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321.58800000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>321.65699999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321.63200000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>321.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321.62400000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>321.68900000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>321.63799999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.55799999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>321.541</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>321.55799999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>321.58600000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>321.58999999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>321.62799999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>321.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>321.65800000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>321.64800000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>321.61900000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>321.62700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>321.62200000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>321.596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'raw ultrasonic'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black (3/3)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'raw ultrasonic'!$H$2:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>321.17899999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>321.13499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.15100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.12400000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>321.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>321.25900000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.17099999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.185</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>321.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>321.17500000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>321.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.17399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.15699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321.202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>321.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>321.161</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>321.17200000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>321.14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>321.16800000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>321.154</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>321.11599999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>321.16300000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>321.12200000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>321.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>321.15899999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>321.15199999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>321.17899999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>321.08699999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>321.13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>321.10399999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>321.13900000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>321.125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>321.137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7A89-4918-BE50-0AA8F8FB7362}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="459518480"/>
+        <c:axId val="459516512"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="459518480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459516512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="459516512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459518480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0201BFE4-5CBF-4714-9434-19184E0F7854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,12 +2843,1569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>324.33999999999997</v>
+      </c>
+      <c r="B2">
+        <v>322.55900000000003</v>
+      </c>
+      <c r="C2">
+        <v>321.84399999999999</v>
+      </c>
+      <c r="D2">
+        <v>321.30200000000002</v>
+      </c>
+      <c r="E2">
+        <v>319.97899999999998</v>
+      </c>
+      <c r="F2">
+        <v>322.12099999999998</v>
+      </c>
+      <c r="G2">
+        <v>321.62599999999998</v>
+      </c>
+      <c r="H2">
+        <v>321.17899999999997</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>324.35500000000002</v>
+      </c>
+      <c r="B3">
+        <v>322.58999999999997</v>
+      </c>
+      <c r="C3">
+        <v>321.84699999999998</v>
+      </c>
+      <c r="D3">
+        <v>321.21899999999999</v>
+      </c>
+      <c r="E3">
+        <v>320.05700000000002</v>
+      </c>
+      <c r="F3">
+        <v>322.14400000000001</v>
+      </c>
+      <c r="G3">
+        <v>321.57900000000001</v>
+      </c>
+      <c r="H3">
+        <v>321.13499999999999</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(A2:A51)</f>
+        <v>324.41744</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:Q3" si="0">AVERAGE(B2:B51)</f>
+        <v>322.58814000000007</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>321.86038000000002</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>321.27763999999991</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>319.97888</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>322.11880000000002</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>321.63581999999991</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>321.16407999999996</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3.11</v>
+      </c>
+      <c r="V3">
+        <v>4.13</v>
+      </c>
+      <c r="W3">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="X3">
+        <v>6.14</v>
+      </c>
+      <c r="Y3">
+        <v>3.9</v>
+      </c>
+      <c r="Z3">
+        <v>4.7</v>
+      </c>
+      <c r="AA3">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>324.36700000000002</v>
+      </c>
+      <c r="B4">
+        <v>322.57</v>
+      </c>
+      <c r="C4">
+        <v>321.89499999999998</v>
+      </c>
+      <c r="D4">
+        <v>321.34399999999999</v>
+      </c>
+      <c r="E4">
+        <v>320.44099999999997</v>
+      </c>
+      <c r="F4">
+        <v>322.13600000000002</v>
+      </c>
+      <c r="G4">
+        <v>321.61200000000002</v>
+      </c>
+      <c r="H4">
+        <v>321.15100000000001</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2.98</v>
+      </c>
+      <c r="V4">
+        <v>4.01</v>
+      </c>
+      <c r="W4">
+        <v>4.78</v>
+      </c>
+      <c r="X4">
+        <v>591</v>
+      </c>
+      <c r="Y4">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="Z4">
+        <v>4.96</v>
+      </c>
+      <c r="AA4">
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>324.38299999999998</v>
+      </c>
+      <c r="B5">
+        <v>322.56700000000001</v>
+      </c>
+      <c r="C5">
+        <v>321.86399999999998</v>
+      </c>
+      <c r="D5">
+        <v>321.29599999999999</v>
+      </c>
+      <c r="E5">
+        <v>320.01900000000001</v>
+      </c>
+      <c r="F5">
+        <v>322.166</v>
+      </c>
+      <c r="G5">
+        <v>321.63299999999998</v>
+      </c>
+      <c r="H5">
+        <v>321.12400000000002</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>2.8</v>
+      </c>
+      <c r="V5">
+        <v>3.78</v>
+      </c>
+      <c r="W5">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="X5">
+        <v>5.54</v>
+      </c>
+      <c r="Y5">
+        <v>3.7</v>
+      </c>
+      <c r="Z5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA5">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>324.47500000000002</v>
+      </c>
+      <c r="B6">
+        <v>322.57299999999998</v>
+      </c>
+      <c r="C6">
+        <v>321.84699999999998</v>
+      </c>
+      <c r="D6">
+        <v>321.21800000000002</v>
+      </c>
+      <c r="E6">
+        <v>320.12700000000001</v>
+      </c>
+      <c r="F6">
+        <v>322.12599999999998</v>
+      </c>
+      <c r="G6">
+        <v>321.66000000000003</v>
+      </c>
+      <c r="H6">
+        <v>321.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>324.34500000000003</v>
+      </c>
+      <c r="B7">
+        <v>322.56099999999998</v>
+      </c>
+      <c r="C7">
+        <v>321.83499999999998</v>
+      </c>
+      <c r="D7">
+        <v>321.25099999999998</v>
+      </c>
+      <c r="E7">
+        <v>320.61200000000002</v>
+      </c>
+      <c r="F7">
+        <v>322.16500000000002</v>
+      </c>
+      <c r="G7">
+        <v>321.63600000000002</v>
+      </c>
+      <c r="H7">
+        <v>321.25900000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>324.43700000000001</v>
+      </c>
+      <c r="B8">
+        <v>322.58699999999999</v>
+      </c>
+      <c r="C8">
+        <v>321.89600000000002</v>
+      </c>
+      <c r="D8">
+        <v>321.29700000000003</v>
+      </c>
+      <c r="E8">
+        <v>320.25099999999998</v>
+      </c>
+      <c r="F8">
+        <v>322.15199999999999</v>
+      </c>
+      <c r="G8">
+        <v>321.61</v>
+      </c>
+      <c r="H8">
+        <v>321.17099999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>324.435</v>
+      </c>
+      <c r="B9">
+        <v>322.55900000000003</v>
+      </c>
+      <c r="C9">
+        <v>321.90199999999999</v>
+      </c>
+      <c r="D9">
+        <v>321.31599999999997</v>
+      </c>
+      <c r="E9">
+        <v>320.58300000000003</v>
+      </c>
+      <c r="F9">
+        <v>322.14299999999997</v>
+      </c>
+      <c r="G9">
+        <v>321.685</v>
+      </c>
+      <c r="H9">
+        <v>321.185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>324.46100000000001</v>
+      </c>
+      <c r="B10">
+        <v>322.55</v>
+      </c>
+      <c r="C10">
+        <v>321.91899999999998</v>
+      </c>
+      <c r="D10">
+        <v>321.18900000000002</v>
+      </c>
+      <c r="E10">
+        <v>320.37599999999998</v>
+      </c>
+      <c r="F10">
+        <v>322.108</v>
+      </c>
+      <c r="G10">
+        <v>321.71499999999997</v>
+      </c>
+      <c r="H10">
+        <v>321.15199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>324.428</v>
+      </c>
+      <c r="B11">
+        <v>322.61599999999999</v>
+      </c>
+      <c r="C11">
+        <v>321.92899999999997</v>
+      </c>
+      <c r="D11">
+        <v>321.23700000000002</v>
+      </c>
+      <c r="E11">
+        <v>320.358</v>
+      </c>
+      <c r="F11">
+        <v>322.08300000000003</v>
+      </c>
+      <c r="G11">
+        <v>321.71899999999999</v>
+      </c>
+      <c r="H11">
+        <v>321.17500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>324.40800000000002</v>
+      </c>
+      <c r="B12">
+        <v>322.56799999999998</v>
+      </c>
+      <c r="C12">
+        <v>321.87</v>
+      </c>
+      <c r="D12">
+        <v>321.161</v>
+      </c>
+      <c r="E12">
+        <v>320.05799999999999</v>
+      </c>
+      <c r="F12">
+        <v>322.10199999999998</v>
+      </c>
+      <c r="G12">
+        <v>321.68099999999998</v>
+      </c>
+      <c r="H12">
+        <v>321.17700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>324.42</v>
+      </c>
+      <c r="B13">
+        <v>322.56299999999999</v>
+      </c>
+      <c r="C13">
+        <v>321.85199999999998</v>
+      </c>
+      <c r="D13">
+        <v>321.32100000000003</v>
+      </c>
+      <c r="E13">
+        <v>320.11</v>
+      </c>
+      <c r="F13">
+        <v>322.15499999999997</v>
+      </c>
+      <c r="G13">
+        <v>321.69</v>
+      </c>
+      <c r="H13">
+        <v>321.18099999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>324.40499999999997</v>
+      </c>
+      <c r="B14">
+        <v>322.52499999999998</v>
+      </c>
+      <c r="C14">
+        <v>321.846</v>
+      </c>
+      <c r="D14">
+        <v>321.21699999999998</v>
+      </c>
+      <c r="E14">
+        <v>320.00099999999998</v>
+      </c>
+      <c r="F14">
+        <v>322.173</v>
+      </c>
+      <c r="G14">
+        <v>321.63799999999998</v>
+      </c>
+      <c r="H14">
+        <v>321.178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>324.45499999999998</v>
+      </c>
+      <c r="B15">
+        <v>322.57499999999999</v>
+      </c>
+      <c r="C15">
+        <v>321.82600000000002</v>
+      </c>
+      <c r="D15">
+        <v>321.23399999999998</v>
+      </c>
+      <c r="E15">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="F15">
+        <v>322.11799999999999</v>
+      </c>
+      <c r="G15">
+        <v>321.642</v>
+      </c>
+      <c r="H15">
+        <v>321.17399999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>324.39100000000002</v>
+      </c>
+      <c r="B16">
+        <v>322.58100000000002</v>
+      </c>
+      <c r="C16">
+        <v>321.84800000000001</v>
+      </c>
+      <c r="D16">
+        <v>321.12299999999999</v>
+      </c>
+      <c r="E16">
+        <v>320.226</v>
+      </c>
+      <c r="F16">
+        <v>322.13400000000001</v>
+      </c>
+      <c r="G16">
+        <v>321.69799999999998</v>
+      </c>
+      <c r="H16">
+        <v>321.166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>324.36399999999998</v>
+      </c>
+      <c r="B17">
+        <v>322.61200000000002</v>
+      </c>
+      <c r="C17">
+        <v>321.91000000000003</v>
+      </c>
+      <c r="D17">
+        <v>321.267</v>
+      </c>
+      <c r="E17">
+        <v>319.87900000000002</v>
+      </c>
+      <c r="F17">
+        <v>322.10300000000001</v>
+      </c>
+      <c r="G17">
+        <v>321.67500000000001</v>
+      </c>
+      <c r="H17">
+        <v>321.18200000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>324.36200000000002</v>
+      </c>
+      <c r="B18">
+        <v>322.589</v>
+      </c>
+      <c r="C18">
+        <v>321.83699999999999</v>
+      </c>
+      <c r="D18">
+        <v>321.29899999999998</v>
+      </c>
+      <c r="E18">
+        <v>320.33600000000001</v>
+      </c>
+      <c r="F18">
+        <v>322.15899999999999</v>
+      </c>
+      <c r="G18">
+        <v>321.63600000000002</v>
+      </c>
+      <c r="H18">
+        <v>321.24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>324.39600000000002</v>
+      </c>
+      <c r="B19">
+        <v>322.63</v>
+      </c>
+      <c r="C19">
+        <v>321.82299999999998</v>
+      </c>
+      <c r="D19">
+        <v>321.30599999999998</v>
+      </c>
+      <c r="E19">
+        <v>320.267</v>
+      </c>
+      <c r="F19">
+        <v>322.14</v>
+      </c>
+      <c r="G19">
+        <v>321.64499999999998</v>
+      </c>
+      <c r="H19">
+        <v>321.15699999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>324.41399999999999</v>
+      </c>
+      <c r="B20">
+        <v>322.55</v>
+      </c>
+      <c r="C20">
+        <v>321.88200000000001</v>
+      </c>
+      <c r="D20">
+        <v>321.31099999999998</v>
+      </c>
+      <c r="E20">
+        <v>320.20299999999997</v>
+      </c>
+      <c r="F20">
+        <v>322.12599999999998</v>
+      </c>
+      <c r="G20">
+        <v>321.649</v>
+      </c>
+      <c r="H20">
+        <v>321.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>324.435</v>
+      </c>
+      <c r="B21">
+        <v>322.54500000000002</v>
+      </c>
+      <c r="C21">
+        <v>321.84100000000001</v>
+      </c>
+      <c r="D21">
+        <v>321.25799999999998</v>
+      </c>
+      <c r="E21">
+        <v>319.92399999999998</v>
+      </c>
+      <c r="F21">
+        <v>322.096</v>
+      </c>
+      <c r="G21">
+        <v>321.66000000000003</v>
+      </c>
+      <c r="H21">
+        <v>321.15300000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>324.43799999999999</v>
+      </c>
+      <c r="B22">
+        <v>322.62200000000001</v>
+      </c>
+      <c r="C22">
+        <v>321.875</v>
+      </c>
+      <c r="D22">
+        <v>321.24700000000001</v>
+      </c>
+      <c r="E22">
+        <v>320.34500000000003</v>
+      </c>
+      <c r="F22">
+        <v>322.101</v>
+      </c>
+      <c r="G22">
+        <v>321.661</v>
+      </c>
+      <c r="H22">
+        <v>321.18099999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>324.41800000000001</v>
+      </c>
+      <c r="B23">
+        <v>322.62599999999998</v>
+      </c>
+      <c r="C23">
+        <v>321.78800000000001</v>
+      </c>
+      <c r="D23">
+        <v>321.41899999999998</v>
+      </c>
+      <c r="E23">
+        <v>319.416</v>
+      </c>
+      <c r="F23">
+        <v>322.096</v>
+      </c>
+      <c r="G23">
+        <v>321.62599999999998</v>
+      </c>
+      <c r="H23">
+        <v>321.19799999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>324.44200000000001</v>
+      </c>
+      <c r="B24">
+        <v>322.62400000000002</v>
+      </c>
+      <c r="C24">
+        <v>321.88099999999997</v>
+      </c>
+      <c r="D24">
+        <v>321.41699999999997</v>
+      </c>
+      <c r="E24">
+        <v>319.84699999999998</v>
+      </c>
+      <c r="F24">
+        <v>322.13799999999998</v>
+      </c>
+      <c r="G24">
+        <v>321.608</v>
+      </c>
+      <c r="H24">
+        <v>321.19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>324.45600000000002</v>
+      </c>
+      <c r="B25">
+        <v>322.55700000000002</v>
+      </c>
+      <c r="C25">
+        <v>321.899</v>
+      </c>
+      <c r="D25">
+        <v>321.29399999999998</v>
+      </c>
+      <c r="E25">
+        <v>319.34500000000003</v>
+      </c>
+      <c r="F25">
+        <v>322.09100000000001</v>
+      </c>
+      <c r="G25">
+        <v>321.625</v>
+      </c>
+      <c r="H25">
+        <v>321.18599999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>324.44600000000003</v>
+      </c>
+      <c r="B26">
+        <v>322.57799999999997</v>
+      </c>
+      <c r="C26">
+        <v>321.863</v>
+      </c>
+      <c r="D26">
+        <v>321.36099999999999</v>
+      </c>
+      <c r="E26">
+        <v>319.80399999999997</v>
+      </c>
+      <c r="F26">
+        <v>322.072</v>
+      </c>
+      <c r="G26">
+        <v>321.66800000000001</v>
+      </c>
+      <c r="H26">
+        <v>321.19200000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>324.44200000000001</v>
+      </c>
+      <c r="B27">
+        <v>322.589</v>
+      </c>
+      <c r="C27">
+        <v>321.84800000000001</v>
+      </c>
+      <c r="D27">
+        <v>321.33600000000001</v>
+      </c>
+      <c r="E27">
+        <v>320.072</v>
+      </c>
+      <c r="F27">
+        <v>322.09800000000001</v>
+      </c>
+      <c r="G27">
+        <v>321.67</v>
+      </c>
+      <c r="H27">
+        <v>321.16399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>324.42</v>
+      </c>
+      <c r="B28">
+        <v>322.625</v>
+      </c>
+      <c r="C28">
+        <v>321.87200000000001</v>
+      </c>
+      <c r="D28">
+        <v>321.30399999999997</v>
+      </c>
+      <c r="E28">
+        <v>319.702</v>
+      </c>
+      <c r="F28">
+        <v>322.11</v>
+      </c>
+      <c r="G28">
+        <v>321.61900000000003</v>
+      </c>
+      <c r="H28">
+        <v>321.166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>324.39600000000002</v>
+      </c>
+      <c r="B29">
+        <v>322.57100000000003</v>
+      </c>
+      <c r="C29">
+        <v>321.84800000000001</v>
+      </c>
+      <c r="D29">
+        <v>321.221</v>
+      </c>
+      <c r="E29">
+        <v>319.93099999999998</v>
+      </c>
+      <c r="F29">
+        <v>322.101</v>
+      </c>
+      <c r="G29">
+        <v>321.63900000000001</v>
+      </c>
+      <c r="H29">
+        <v>321.202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>324.38600000000002</v>
+      </c>
+      <c r="B30">
+        <v>322.56799999999998</v>
+      </c>
+      <c r="C30">
+        <v>321.82100000000003</v>
+      </c>
+      <c r="D30">
+        <v>321.31400000000002</v>
+      </c>
+      <c r="E30">
+        <v>319.637</v>
+      </c>
+      <c r="F30">
+        <v>322.08499999999998</v>
+      </c>
+      <c r="G30">
+        <v>321.60199999999998</v>
+      </c>
+      <c r="H30">
+        <v>321.18099999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>324.33999999999997</v>
+      </c>
+      <c r="B31">
+        <v>322.61799999999999</v>
+      </c>
+      <c r="C31">
+        <v>321.834</v>
+      </c>
+      <c r="D31">
+        <v>321.32299999999998</v>
+      </c>
+      <c r="E31">
+        <v>319.411</v>
+      </c>
+      <c r="F31">
+        <v>322.06799999999998</v>
+      </c>
+      <c r="G31">
+        <v>321.58800000000002</v>
+      </c>
+      <c r="H31">
+        <v>321.22500000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>324.40499999999997</v>
+      </c>
+      <c r="B32">
+        <v>322.55700000000002</v>
+      </c>
+      <c r="C32">
+        <v>321.85300000000001</v>
+      </c>
+      <c r="D32">
+        <v>321.24599999999998</v>
+      </c>
+      <c r="E32">
+        <v>319.517</v>
+      </c>
+      <c r="F32">
+        <v>322.05500000000001</v>
+      </c>
+      <c r="G32">
+        <v>321.65699999999998</v>
+      </c>
+      <c r="H32">
+        <v>321.19799999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>324.40600000000001</v>
+      </c>
+      <c r="B33">
+        <v>322.56599999999997</v>
+      </c>
+      <c r="C33">
+        <v>321.82799999999997</v>
+      </c>
+      <c r="D33">
+        <v>321.14800000000002</v>
+      </c>
+      <c r="E33">
+        <v>319.45100000000002</v>
+      </c>
+      <c r="F33">
+        <v>322.05799999999999</v>
+      </c>
+      <c r="G33">
+        <v>321.64</v>
+      </c>
+      <c r="H33">
+        <v>321.161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>324.34399999999999</v>
+      </c>
+      <c r="B34">
+        <v>322.59899999999999</v>
+      </c>
+      <c r="C34">
+        <v>321.86500000000001</v>
+      </c>
+      <c r="D34">
+        <v>321.31799999999998</v>
+      </c>
+      <c r="E34">
+        <v>319.822</v>
+      </c>
+      <c r="F34">
+        <v>322.08600000000001</v>
+      </c>
+      <c r="G34">
+        <v>321.63200000000001</v>
+      </c>
+      <c r="H34">
+        <v>321.17200000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>324.37700000000001</v>
+      </c>
+      <c r="B35">
+        <v>322.57900000000001</v>
+      </c>
+      <c r="C35">
+        <v>321.88400000000001</v>
+      </c>
+      <c r="D35">
+        <v>321.24900000000002</v>
+      </c>
+      <c r="E35">
+        <v>319.62900000000002</v>
+      </c>
+      <c r="F35">
+        <v>322.08499999999998</v>
+      </c>
+      <c r="G35">
+        <v>321.65800000000002</v>
+      </c>
+      <c r="H35">
+        <v>321.14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>324.51900000000001</v>
+      </c>
+      <c r="B36">
+        <v>322.56</v>
+      </c>
+      <c r="C36">
+        <v>321.94400000000002</v>
+      </c>
+      <c r="D36">
+        <v>321.25099999999998</v>
+      </c>
+      <c r="E36">
+        <v>319.91899999999998</v>
+      </c>
+      <c r="F36">
+        <v>322.07100000000003</v>
+      </c>
+      <c r="G36">
+        <v>321.62400000000002</v>
+      </c>
+      <c r="H36">
+        <v>321.16800000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>324.51499999999999</v>
+      </c>
+      <c r="B37">
+        <v>322.565</v>
+      </c>
+      <c r="C37">
+        <v>321.89600000000002</v>
+      </c>
+      <c r="D37">
+        <v>321.37099999999998</v>
+      </c>
+      <c r="E37">
+        <v>319.70600000000002</v>
+      </c>
+      <c r="F37">
+        <v>322.07900000000001</v>
+      </c>
+      <c r="G37">
+        <v>321.68900000000002</v>
+      </c>
+      <c r="H37">
+        <v>321.154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>324.483</v>
+      </c>
+      <c r="B38">
+        <v>322.61500000000001</v>
+      </c>
+      <c r="C38">
+        <v>321.90300000000002</v>
+      </c>
+      <c r="D38">
+        <v>321.16199999999998</v>
+      </c>
+      <c r="E38">
+        <v>319.928</v>
+      </c>
+      <c r="F38">
+        <v>322.09300000000002</v>
+      </c>
+      <c r="G38">
+        <v>321.63799999999998</v>
+      </c>
+      <c r="H38">
+        <v>321.11599999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>324.488</v>
+      </c>
+      <c r="B39">
+        <v>322.56799999999998</v>
+      </c>
+      <c r="C39">
+        <v>321.822</v>
+      </c>
+      <c r="D39">
+        <v>321.28100000000001</v>
+      </c>
+      <c r="E39">
+        <v>320.12400000000002</v>
+      </c>
+      <c r="F39">
+        <v>322.10399999999998</v>
+      </c>
+      <c r="G39">
+        <v>321.55799999999999</v>
+      </c>
+      <c r="H39">
+        <v>321.16300000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>324.44400000000002</v>
+      </c>
+      <c r="B40">
+        <v>322.64699999999999</v>
+      </c>
+      <c r="C40">
+        <v>321.86500000000001</v>
+      </c>
+      <c r="D40">
+        <v>321.26100000000002</v>
+      </c>
+      <c r="E40">
+        <v>320.512</v>
+      </c>
+      <c r="F40">
+        <v>322.154</v>
+      </c>
+      <c r="G40">
+        <v>321.541</v>
+      </c>
+      <c r="H40">
+        <v>321.12200000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>324.45</v>
+      </c>
+      <c r="B41">
+        <v>322.625</v>
+      </c>
+      <c r="C41">
+        <v>321.83800000000002</v>
+      </c>
+      <c r="D41">
+        <v>321.31900000000002</v>
+      </c>
+      <c r="E41">
+        <v>320.38299999999998</v>
+      </c>
+      <c r="F41">
+        <v>322.10300000000001</v>
+      </c>
+      <c r="G41">
+        <v>321.55799999999999</v>
+      </c>
+      <c r="H41">
+        <v>321.13299999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>324.40199999999999</v>
+      </c>
+      <c r="B42">
+        <v>322.59500000000003</v>
+      </c>
+      <c r="C42">
+        <v>321.822</v>
+      </c>
+      <c r="D42">
+        <v>321.31200000000001</v>
+      </c>
+      <c r="E42">
+        <v>320.24</v>
+      </c>
+      <c r="F42">
+        <v>322.11799999999999</v>
+      </c>
+      <c r="G42">
+        <v>321.58600000000001</v>
+      </c>
+      <c r="H42">
+        <v>321.15899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>324.40600000000001</v>
+      </c>
+      <c r="B43">
+        <v>322.62700000000001</v>
+      </c>
+      <c r="C43">
+        <v>321.851</v>
+      </c>
+      <c r="D43">
+        <v>321.30900000000003</v>
+      </c>
+      <c r="E43">
+        <v>319.67</v>
+      </c>
+      <c r="F43">
+        <v>322.137</v>
+      </c>
+      <c r="G43">
+        <v>321.58999999999997</v>
+      </c>
+      <c r="H43">
+        <v>321.15199999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>324.40300000000002</v>
+      </c>
+      <c r="B44">
+        <v>322.59199999999998</v>
+      </c>
+      <c r="C44">
+        <v>321.86599999999999</v>
+      </c>
+      <c r="D44">
+        <v>321.274</v>
+      </c>
+      <c r="E44">
+        <v>319.988</v>
+      </c>
+      <c r="F44">
+        <v>322.15899999999999</v>
+      </c>
+      <c r="G44">
+        <v>321.62799999999999</v>
+      </c>
+      <c r="H44">
+        <v>321.17899999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>324.47899999999998</v>
+      </c>
+      <c r="B45">
+        <v>322.54500000000002</v>
+      </c>
+      <c r="C45">
+        <v>321.82499999999999</v>
+      </c>
+      <c r="D45">
+        <v>321.26900000000001</v>
+      </c>
+      <c r="E45">
+        <v>319.30399999999997</v>
+      </c>
+      <c r="F45">
+        <v>322.173</v>
+      </c>
+      <c r="G45">
+        <v>321.62700000000001</v>
+      </c>
+      <c r="H45">
+        <v>321.08699999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>324.46600000000001</v>
+      </c>
+      <c r="B46">
+        <v>322.59199999999998</v>
+      </c>
+      <c r="C46">
+        <v>321.85700000000003</v>
+      </c>
+      <c r="D46">
+        <v>321.32400000000001</v>
+      </c>
+      <c r="E46">
+        <v>319.78399999999999</v>
+      </c>
+      <c r="F46">
+        <v>322.20100000000002</v>
+      </c>
+      <c r="G46">
+        <v>321.65800000000002</v>
+      </c>
+      <c r="H46">
+        <v>321.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>324.50099999999998</v>
+      </c>
+      <c r="B47">
+        <v>322.59300000000002</v>
+      </c>
+      <c r="C47">
+        <v>321.90300000000002</v>
+      </c>
+      <c r="D47">
+        <v>321.28399999999999</v>
+      </c>
+      <c r="E47">
+        <v>320.22899999999998</v>
+      </c>
+      <c r="F47">
+        <v>322.15600000000001</v>
+      </c>
+      <c r="G47">
+        <v>321.64800000000002</v>
+      </c>
+      <c r="H47">
+        <v>321.10399999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>324.39800000000002</v>
+      </c>
+      <c r="B48">
+        <v>322.608</v>
+      </c>
+      <c r="C48">
+        <v>321.85599999999999</v>
+      </c>
+      <c r="D48">
+        <v>321.30200000000002</v>
+      </c>
+      <c r="E48">
+        <v>320.17700000000002</v>
+      </c>
+      <c r="F48">
+        <v>322.12599999999998</v>
+      </c>
+      <c r="G48">
+        <v>321.61900000000003</v>
+      </c>
+      <c r="H48">
+        <v>321.18099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>324.375</v>
+      </c>
+      <c r="B49">
+        <v>322.62799999999999</v>
+      </c>
+      <c r="C49">
+        <v>321.79399999999998</v>
+      </c>
+      <c r="D49">
+        <v>321.28100000000001</v>
+      </c>
+      <c r="E49">
+        <v>320.26</v>
+      </c>
+      <c r="F49">
+        <v>322.113</v>
+      </c>
+      <c r="G49">
+        <v>321.62700000000001</v>
+      </c>
+      <c r="H49">
+        <v>321.13900000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>324.37200000000001</v>
+      </c>
+      <c r="B50">
+        <v>322.62400000000002</v>
+      </c>
+      <c r="C50">
+        <v>321.82499999999999</v>
+      </c>
+      <c r="D50">
+        <v>321.25099999999998</v>
+      </c>
+      <c r="E50">
+        <v>319.16500000000002</v>
+      </c>
+      <c r="F50">
+        <v>322.12599999999998</v>
+      </c>
+      <c r="G50">
+        <v>321.62200000000001</v>
+      </c>
+      <c r="H50">
+        <v>321.125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>324.37900000000002</v>
+      </c>
+      <c r="B51">
+        <v>322.67399999999998</v>
+      </c>
+      <c r="C51">
+        <v>321.88</v>
+      </c>
+      <c r="D51">
+        <v>321.26799999999997</v>
+      </c>
+      <c r="E51">
+        <v>319.71899999999999</v>
+      </c>
+      <c r="F51">
+        <v>322.13299999999998</v>
+      </c>
+      <c r="G51">
+        <v>321.596</v>
+      </c>
+      <c r="H51">
+        <v>321.137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="S1:AA1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/graphs/readings-vs-anenometers.xlsx
+++ b/graphs/readings-vs-anenometers.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="raw ultrasonic" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Ultrasonic" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Ambient</t>
   </si>
@@ -50,25 +50,31 @@
     <t>Black (3/3)</t>
   </si>
   <si>
-    <t>Done</t>
+    <t>Anemometer behind 'P'</t>
   </si>
   <si>
-    <t>Measured Averages</t>
+    <t>Anemometer front</t>
   </si>
   <si>
-    <t>Anemometer Readings</t>
+    <t>Anemometer back</t>
   </si>
   <si>
-    <t>Front</t>
+    <t>Measured averages</t>
   </si>
   <si>
-    <t>Back</t>
+    <t>Temperature</t>
   </si>
   <si>
-    <t>Front behind 'P'</t>
+    <t>Speed of sound</t>
   </si>
   <si>
-    <t>19.99C</t>
+    <t>(Vs+Vw)^-1 front</t>
+  </si>
+  <si>
+    <t>(Vs+Vw)^-1 behind 'P'</t>
+  </si>
+  <si>
+    <t>(Vs+Vw)^-1 back</t>
   </si>
 </sst>
 </file>
@@ -112,12 +118,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,12 +179,736 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Measured Propagation Time vs. Anemometer Speed at Different Anemometer Positions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anemometer front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.11313036977050805"/>
+                  <c:y val="-0.57098772579898105"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$L$2:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F808-44A8-B242-F4B687C38549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anemometer behind 'P'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.4239601947580465E-2"/>
+                  <c:y val="-0.67526208121043696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F808-44A8-B242-F4B687C38549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anemometer back</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.10861824369815275"/>
+                  <c:y val="-0.48274027327466418"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$N$2:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F808-44A8-B242-F4B687C38549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="367052304"/>
+        <c:axId val="367055584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="367052304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367055584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="367055584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="367052304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Measured Propagation Time at Various</a:t>
+              <a:t>Measured</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Wind Speeds</a:t>
+              <a:t> Propagation Time at Different Fan Speeds</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -220,7 +954,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw ultrasonic'!$A$1</c:f>
+              <c:f>'Raw Ultrasonic'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -243,10 +977,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'raw ultrasonic'!$A$2:$A$51</c:f>
+              <c:f>'Raw Ultrasonic'!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>324.33999999999997</c:v>
                 </c:pt>
@@ -403,7 +1137,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7A89-4918-BE50-0AA8F8FB7362}"/>
+              <c16:uniqueId val="{00000000-E07D-42A3-8AA1-F890B0E63E4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -412,11 +1146,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw ultrasonic'!$B$1</c:f>
+              <c:f>'Raw Ultrasonic'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Grey (1/4)</c:v>
+                  <c:v>Black (1/3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -435,159 +1169,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'raw ultrasonic'!$B$2:$B$51</c:f>
+              <c:f>'Raw Ultrasonic'!$F$2:$F$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>322.55900000000003</c:v>
+                  <c:v>322.12099999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>322.58999999999997</c:v>
+                  <c:v>322.14400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>322.57</c:v>
+                  <c:v>322.13600000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322.56700000000001</c:v>
+                  <c:v>322.166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>322.57299999999998</c:v>
+                  <c:v>322.12599999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>322.56099999999998</c:v>
+                  <c:v>322.16500000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>322.58699999999999</c:v>
+                  <c:v>322.15199999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>322.55900000000003</c:v>
+                  <c:v>322.14299999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>322.55</c:v>
+                  <c:v>322.108</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>322.61599999999999</c:v>
+                  <c:v>322.08300000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>322.56799999999998</c:v>
+                  <c:v>322.10199999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>322.56299999999999</c:v>
+                  <c:v>322.15499999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>322.52499999999998</c:v>
+                  <c:v>322.173</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>322.57499999999999</c:v>
+                  <c:v>322.11799999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>322.58100000000002</c:v>
+                  <c:v>322.13400000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>322.61200000000002</c:v>
+                  <c:v>322.10300000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>322.589</c:v>
+                  <c:v>322.15899999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>322.63</c:v>
+                  <c:v>322.14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>322.55</c:v>
+                  <c:v>322.12599999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>322.54500000000002</c:v>
+                  <c:v>322.096</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>322.62200000000001</c:v>
+                  <c:v>322.101</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>322.62599999999998</c:v>
+                  <c:v>322.096</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>322.62400000000002</c:v>
+                  <c:v>322.13799999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>322.55700000000002</c:v>
+                  <c:v>322.09100000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>322.57799999999997</c:v>
+                  <c:v>322.072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>322.589</c:v>
+                  <c:v>322.09800000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>322.625</c:v>
+                  <c:v>322.11</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>322.57100000000003</c:v>
+                  <c:v>322.101</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>322.56799999999998</c:v>
+                  <c:v>322.08499999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>322.61799999999999</c:v>
+                  <c:v>322.06799999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>322.55700000000002</c:v>
+                  <c:v>322.05500000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>322.56599999999997</c:v>
+                  <c:v>322.05799999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>322.59899999999999</c:v>
+                  <c:v>322.08600000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>322.57900000000001</c:v>
+                  <c:v>322.08499999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>322.56</c:v>
+                  <c:v>322.07100000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>322.565</c:v>
+                  <c:v>322.07900000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>322.61500000000001</c:v>
+                  <c:v>322.09300000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>322.56799999999998</c:v>
+                  <c:v>322.10399999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>322.64699999999999</c:v>
+                  <c:v>322.154</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>322.625</c:v>
+                  <c:v>322.10300000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>322.59500000000003</c:v>
+                  <c:v>322.11799999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>322.62700000000001</c:v>
+                  <c:v>322.137</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>322.59199999999998</c:v>
+                  <c:v>322.15899999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>322.54500000000002</c:v>
+                  <c:v>322.173</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>322.59199999999998</c:v>
+                  <c:v>322.20100000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>322.59300000000002</c:v>
+                  <c:v>322.15600000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>322.608</c:v>
+                  <c:v>322.12599999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>322.62799999999999</c:v>
+                  <c:v>322.113</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>322.62400000000002</c:v>
+                  <c:v>322.12599999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>322.67399999999998</c:v>
+                  <c:v>322.13299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,7 +1329,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7A89-4918-BE50-0AA8F8FB7362}"/>
+              <c16:uniqueId val="{00000001-E07D-42A3-8AA1-F890B0E63E4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -604,11 +1338,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw ultrasonic'!$C$1</c:f>
+              <c:f>'Raw Ultrasonic'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Grey (2/4)</c:v>
+                  <c:v>Black (2/3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -627,159 +1361,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'raw ultrasonic'!$C$2:$C$51</c:f>
+              <c:f>'Raw Ultrasonic'!$G$2:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>321.84399999999999</c:v>
+                  <c:v>321.62599999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.84699999999998</c:v>
+                  <c:v>321.57900000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>321.89499999999998</c:v>
+                  <c:v>321.61200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>321.86399999999998</c:v>
+                  <c:v>321.63299999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321.84699999999998</c:v>
+                  <c:v>321.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321.83499999999998</c:v>
+                  <c:v>321.63600000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>321.89600000000002</c:v>
+                  <c:v>321.61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>321.90199999999999</c:v>
+                  <c:v>321.685</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>321.91899999999998</c:v>
+                  <c:v>321.71499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>321.92899999999997</c:v>
+                  <c:v>321.71899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>321.87</c:v>
+                  <c:v>321.68099999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>321.85199999999998</c:v>
+                  <c:v>321.69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>321.846</c:v>
+                  <c:v>321.63799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>321.82600000000002</c:v>
+                  <c:v>321.642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>321.84800000000001</c:v>
+                  <c:v>321.69799999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>321.91000000000003</c:v>
+                  <c:v>321.67500000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>321.83699999999999</c:v>
+                  <c:v>321.63600000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>321.82299999999998</c:v>
+                  <c:v>321.64499999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>321.88200000000001</c:v>
+                  <c:v>321.649</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>321.84100000000001</c:v>
+                  <c:v>321.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>321.875</c:v>
+                  <c:v>321.661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>321.78800000000001</c:v>
+                  <c:v>321.62599999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>321.88099999999997</c:v>
+                  <c:v>321.608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>321.899</c:v>
+                  <c:v>321.625</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>321.863</c:v>
+                  <c:v>321.66800000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>321.84800000000001</c:v>
+                  <c:v>321.67</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>321.87200000000001</c:v>
+                  <c:v>321.61900000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>321.84800000000001</c:v>
+                  <c:v>321.63900000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>321.82100000000003</c:v>
+                  <c:v>321.60199999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>321.834</c:v>
+                  <c:v>321.58800000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>321.85300000000001</c:v>
+                  <c:v>321.65699999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>321.82799999999997</c:v>
+                  <c:v>321.64</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>321.86500000000001</c:v>
+                  <c:v>321.63200000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>321.88400000000001</c:v>
+                  <c:v>321.65800000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>321.94400000000002</c:v>
+                  <c:v>321.62400000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>321.89600000000002</c:v>
+                  <c:v>321.68900000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>321.90300000000002</c:v>
+                  <c:v>321.63799999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>321.822</c:v>
+                  <c:v>321.55799999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>321.86500000000001</c:v>
+                  <c:v>321.541</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>321.83800000000002</c:v>
+                  <c:v>321.55799999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>321.822</c:v>
+                  <c:v>321.58600000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>321.851</c:v>
+                  <c:v>321.58999999999997</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>321.86599999999999</c:v>
+                  <c:v>321.62799999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>321.82499999999999</c:v>
+                  <c:v>321.62700000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>321.85700000000003</c:v>
+                  <c:v>321.65800000000002</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>321.90300000000002</c:v>
+                  <c:v>321.64800000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>321.85599999999999</c:v>
+                  <c:v>321.61900000000003</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>321.79399999999998</c:v>
+                  <c:v>321.62700000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>321.82499999999999</c:v>
+                  <c:v>321.62200000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>321.88</c:v>
+                  <c:v>321.596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -787,7 +1521,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7A89-4918-BE50-0AA8F8FB7362}"/>
+              <c16:uniqueId val="{00000002-E07D-42A3-8AA1-F890B0E63E4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -796,11 +1530,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'raw ultrasonic'!$D$1</c:f>
+              <c:f>'Raw Ultrasonic'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Grey (3/4)</c:v>
+                  <c:v>Black (3/3)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -819,159 +1553,159 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'raw ultrasonic'!$D$2:$D$51</c:f>
+              <c:f>'Raw Ultrasonic'!$H$2:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>321.30200000000002</c:v>
+                  <c:v>321.17899999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>321.21899999999999</c:v>
+                  <c:v>321.13499999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>321.34399999999999</c:v>
+                  <c:v>321.15100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>321.29599999999999</c:v>
+                  <c:v>321.12400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>321.21800000000002</c:v>
+                  <c:v>321.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>321.25099999999998</c:v>
+                  <c:v>321.25900000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>321.29700000000003</c:v>
+                  <c:v>321.17099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>321.31599999999997</c:v>
+                  <c:v>321.185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>321.18900000000002</c:v>
+                  <c:v>321.15199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>321.23700000000002</c:v>
+                  <c:v>321.17500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>321.17700000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>321.178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>321.17399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>321.166</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>321.18200000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>321.24</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>321.15699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>321.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>321.15300000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>321.19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>321.18599999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>321.19200000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>321.16399999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321.166</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>321.202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>321.18099999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>321.22500000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>321.19799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>321.161</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>321.32100000000003</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>321.21699999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>321.23399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>321.12299999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>321.267</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>321.29899999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>321.30599999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>321.31099999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>321.25799999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>321.24700000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>321.41899999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>321.41699999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>321.29399999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>321.36099999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>321.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>321.30399999999997</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>321.221</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>321.31400000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>321.32299999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>321.24599999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>321.14800000000002</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>321.31799999999998</c:v>
+                  <c:v>321.17200000000003</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>321.24900000000002</c:v>
+                  <c:v>321.14</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>321.25099999999998</c:v>
+                  <c:v>321.16800000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>321.37099999999998</c:v>
+                  <c:v>321.154</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>321.16199999999998</c:v>
+                  <c:v>321.11599999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>321.28100000000001</c:v>
+                  <c:v>321.16300000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>321.26100000000002</c:v>
+                  <c:v>321.12200000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>321.31900000000002</c:v>
+                  <c:v>321.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>321.31200000000001</c:v>
+                  <c:v>321.15899999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>321.30900000000003</c:v>
+                  <c:v>321.15199999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>321.274</c:v>
+                  <c:v>321.17899999999997</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>321.26900000000001</c:v>
+                  <c:v>321.08699999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>321.32400000000001</c:v>
+                  <c:v>321.13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>321.28399999999999</c:v>
+                  <c:v>321.10399999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>321.30200000000002</c:v>
+                  <c:v>321.18099999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>321.28100000000001</c:v>
+                  <c:v>321.13900000000001</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>321.25099999999998</c:v>
+                  <c:v>321.125</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>321.26799999999997</c:v>
+                  <c:v>321.137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,779 +1713,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7A89-4918-BE50-0AA8F8FB7362}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'raw ultrasonic'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Grey (4/4)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'raw ultrasonic'!$E$2:$E$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>319.97899999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>320.05700000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>320.44099999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>320.01900000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320.12700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>320.61200000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>320.25099999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>320.58300000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>320.37599999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>320.358</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>320.05799999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>320.11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>320.00099999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>320.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>320.226</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>319.87900000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320.33600000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>320.267</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>320.20299999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>319.92399999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>320.34500000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>319.416</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>319.84699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>319.34500000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>319.80399999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>320.072</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>319.702</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>319.93099999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>319.637</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>319.411</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>319.517</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>319.45100000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>319.822</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>319.62900000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>319.91899999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>319.70600000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>319.928</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>320.12400000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>320.512</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>320.38299999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>320.24</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>319.67</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>319.988</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>319.30399999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>319.78399999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>320.22899999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>320.17700000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>320.26</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>319.16500000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>319.71899999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7A89-4918-BE50-0AA8F8FB7362}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'raw ultrasonic'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Black (1/3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'raw ultrasonic'!$F$2:$F$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>322.12099999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>322.14400000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>322.13600000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>322.166</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>322.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>322.16500000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>322.15199999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>322.14299999999997</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>322.108</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>322.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>322.10199999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>322.15499999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>322.173</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>322.11799999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>322.13400000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>322.10300000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>322.15899999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>322.14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>322.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>322.096</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>322.101</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>322.096</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>322.13799999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>322.09100000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>322.072</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>322.09800000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>322.11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>322.101</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>322.08499999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>322.06799999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>322.05500000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>322.05799999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>322.08600000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>322.08499999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>322.07100000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>322.07900000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>322.09300000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>322.10399999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>322.154</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>322.10300000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>322.11799999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>322.137</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>322.15899999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>322.173</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>322.20100000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>322.15600000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>322.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>322.113</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>322.12599999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>322.13299999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7A89-4918-BE50-0AA8F8FB7362}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'raw ultrasonic'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Black (2/3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'raw ultrasonic'!$G$2:$G$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>321.62599999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>321.57900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>321.61200000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>321.63299999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>321.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>321.63600000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321.61</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>321.685</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>321.71499999999997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>321.71899999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>321.68099999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>321.69</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>321.63799999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>321.642</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>321.69799999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>321.67500000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>321.63600000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>321.64499999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>321.649</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>321.66000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>321.661</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>321.62599999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>321.608</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>321.625</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>321.66800000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>321.67</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>321.61900000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>321.63900000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>321.60199999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>321.58800000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>321.65699999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>321.64</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>321.63200000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>321.65800000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>321.62400000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>321.68900000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>321.63799999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>321.55799999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>321.541</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>321.55799999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>321.58600000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>321.58999999999997</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>321.62799999999999</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>321.62700000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>321.65800000000002</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>321.64800000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>321.61900000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>321.62700000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>321.62200000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>321.596</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-7A89-4918-BE50-0AA8F8FB7362}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'raw ultrasonic'!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Black (3/3)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'raw ultrasonic'!$H$2:$H$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>321.17899999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>321.13499999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>321.15100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>321.12400000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>321.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>321.25900000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>321.17099999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>321.185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>321.15199999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>321.17500000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>321.17700000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>321.18099999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>321.178</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>321.17399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>321.166</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>321.18200000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>321.24</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>321.15699999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>321.13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>321.15300000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>321.18099999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>321.19799999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>321.19</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>321.18599999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>321.19200000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>321.16399999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>321.166</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>321.202</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>321.18099999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>321.22500000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>321.19799999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>321.161</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>321.17200000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>321.14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>321.16800000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>321.154</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>321.11599999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>321.16300000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>321.12200000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>321.13299999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>321.15899999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>321.15199999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>321.17899999999997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>321.08699999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>321.13</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>321.10399999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>321.18099999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>321.13900000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>321.125</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>321.137</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-7A89-4918-BE50-0AA8F8FB7362}"/>
+              <c16:uniqueId val="{00000003-E07D-42A3-8AA1-F890B0E63E4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1764,53 +1726,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="459518480"/>
-        <c:axId val="459516512"/>
+        <c:axId val="363206968"/>
+        <c:axId val="363207296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="459518480"/>
+        <c:axId val="363206968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="459516512"/>
+        <c:crossAx val="363207296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1818,9 +1747,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="459516512"/>
+        <c:axId val="363207296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="325"/>
+          <c:min val="320.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1838,6 +1769,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Propagation Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1869,7 +1868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="459518480"/>
+        <c:crossAx val="363206968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1949,6 +1948,1748 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Inverse of Net Velocity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. Measured Propagation Time at Different Anemometer Positions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Vs+Vw)^-1 front</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13873288356276481"/>
+                  <c:y val="6.3218843334238398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$T$2:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$U$2:$U$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9119377041013535E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8792394569593146E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8726226821023022E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.86718669405174E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AC6-497F-995A-0DCF65D39801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Vs+Vw)^-1 behind 'P'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13873288356276481"/>
+                  <c:y val="0.17996696533622952"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$T$2:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$V$2:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9119377041013535E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.877251226097451E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8704787734696803E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8633281367745423E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AC6-497F-995A-0DCF65D39801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(Vs+Vw)^-1 back</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.13873288356276481"/>
+                  <c:y val="-5.6610326726400595E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$T$2:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$W$2:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.9119377041013535E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8808984162376193E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8751004056939179E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8690787164453351E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3AC6-497F-995A-0DCF65D39801}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594641360"/>
+        <c:axId val="594640048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594641360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594640048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594640048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594641360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Propagation Time vs. Inverse of Net Velocity</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Measured averages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.672239473068726E-3"/>
+                  <c:y val="0.24309825678569841"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$Z$2:$Z$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9119377041013535E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.877251226097451E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8704787734696803E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8633281367745423E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$AA$2:$AA$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C75B-4D8D-9D85-4E8880C5F4D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="514639184"/>
+        <c:axId val="514641152"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="514639184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inverse</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Net Velocity (s/m)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514641152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="514641152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured Propagation Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="514639184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Measured Wind Speed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> From Anemometer vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Measured Propagation Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Raw Ultrasonic'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anemometer behind 'P'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31475356815374289"/>
+                  <c:y val="-0.51609154463168738"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$K$2:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>324.41744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322.11880000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>321.63581999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>321.16407999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Raw Ultrasonic'!$M$2:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3FFD-4BCC-890E-AE406D7FDE92}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="523716080"/>
+        <c:axId val="523718704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="523716080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Propagation Time (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523718704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="523718704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Measured Wind Speed (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523716080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1989,8 +3730,168 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2017,8 +3918,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2098,11 +3999,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -2113,11 +4009,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -2129,7 +4020,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2149,6 +4040,532 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
@@ -2486,6 +4903,1554 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2509,23 +6474,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274061</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>59749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>813955</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>97849</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0201BFE4-5CBF-4714-9434-19184E0F7854}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4F6D1CC-5ECF-4050-9E51-1348C2234820}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2538,6 +6503,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>46325</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298739</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9590AF53-E44F-4FB0-867E-36082AA697A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>120361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>158461</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BB84DE-EEB0-4A09-9581-94A81A495EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>322550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>413904</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2545FC-849B-4F99-996B-7D199434E8AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426459</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>225134</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388A1571-9096-48D8-A4F9-D55BF9D15705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2843,10 +6952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC52"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W43" sqref="W43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,15 +6963,25 @@
     <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2887,32 +7006,48 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="S1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AC1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="1" t="str">
+        <f>K1</f>
+        <v>Measured averages</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>324.33999999999997</v>
       </c>
@@ -2940,53 +7075,56 @@
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="K2">
+        <f>AVERAGE(A2:A51)</f>
+        <v>324.41744</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>7</v>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="3">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="Q2" s="4">
+        <f>331.3+0.606*P2</f>
+        <v>343.41394000000003</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="str">
+        <f t="shared" ref="S2:S9" si="0">J2</f>
+        <v>Ambient</v>
+      </c>
+      <c r="T2" s="4">
+        <f t="shared" ref="T2:T9" si="1">K2</f>
+        <v>324.41744</v>
+      </c>
+      <c r="U2" s="4">
+        <f>1/($Q2+L2)</f>
+        <v>2.9119377041013535E-3</v>
+      </c>
+      <c r="V2" s="4">
+        <f t="shared" ref="V2" si="2">1/($Q2+M2)</f>
+        <v>2.9119377041013535E-3</v>
+      </c>
+      <c r="W2" s="4">
+        <f t="shared" ref="W2" si="3">1/($Q2+N2)</f>
+        <v>2.9119377041013535E-3</v>
+      </c>
+      <c r="Z2">
+        <v>2.9119377041013535E-3</v>
+      </c>
+      <c r="AA2">
+        <v>324.41744</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>324.35500000000002</v>
       </c>
@@ -3011,67 +7149,25 @@
       <c r="H3">
         <v>321.13499999999999</v>
       </c>
-      <c r="J3">
-        <f>AVERAGE(A2:A51)</f>
-        <v>324.41744</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:Q3" si="0">AVERAGE(B2:B51)</f>
-        <v>322.58814000000007</v>
-      </c>
-      <c r="L3">
+      <c r="J3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>321.86038000000002</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="0"/>
-        <v>321.27763999999991</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="0"/>
-        <v>319.97888</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="0"/>
+        <v>Grey (1/4)</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="Z3">
+        <v>2.877251226097451E-3</v>
+      </c>
+      <c r="AA3">
         <v>322.11880000000002</v>
       </c>
-      <c r="P3">
-        <f t="shared" si="0"/>
-        <v>321.63581999999991</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="0"/>
-        <v>321.16407999999996</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>3.11</v>
-      </c>
-      <c r="V3">
-        <v>4.13</v>
-      </c>
-      <c r="W3">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="X3">
-        <v>6.14</v>
-      </c>
-      <c r="Y3">
-        <v>3.9</v>
-      </c>
-      <c r="Z3">
-        <v>4.7</v>
-      </c>
-      <c r="AA3">
-        <v>5.36</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>324.36700000000002</v>
       </c>
@@ -3096,35 +7192,25 @@
       <c r="H4">
         <v>321.15100000000001</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>2.98</v>
-      </c>
-      <c r="V4">
-        <v>4.01</v>
-      </c>
-      <c r="W4">
-        <v>4.78</v>
-      </c>
-      <c r="X4">
-        <v>591</v>
-      </c>
-      <c r="Y4">
-        <v>4.1399999999999997</v>
-      </c>
+      <c r="J4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grey (2/4)</v>
+      </c>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
       <c r="Z4">
-        <v>4.96</v>
+        <v>2.8704787734696803E-3</v>
       </c>
       <c r="AA4">
-        <v>5.83</v>
+        <v>321.63581999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>324.38299999999998</v>
       </c>
@@ -3149,35 +7235,25 @@
       <c r="H5">
         <v>321.12400000000002</v>
       </c>
-      <c r="S5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>2.8</v>
-      </c>
-      <c r="V5">
-        <v>3.78</v>
-      </c>
-      <c r="W5">
-        <v>4.5199999999999996</v>
-      </c>
-      <c r="X5">
-        <v>5.54</v>
-      </c>
-      <c r="Y5">
-        <v>3.7</v>
-      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grey (3/4)</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
       <c r="Z5">
-        <v>4.4000000000000004</v>
+        <v>2.8633281367745423E-3</v>
       </c>
       <c r="AA5">
-        <v>5.13</v>
+        <v>321.16407999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>324.47500000000002</v>
       </c>
@@ -3202,8 +7278,19 @@
       <c r="H6">
         <v>321.13</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grey (4/4)</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>324.34500000000003</v>
       </c>
@@ -3228,8 +7315,44 @@
       <c r="H7">
         <v>321.25900000000001</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <f>AVERAGE(F2:F51)</f>
+        <v>322.11880000000002</v>
+      </c>
+      <c r="L7">
+        <v>3.9</v>
+      </c>
+      <c r="M7">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="N7">
+        <v>3.7</v>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black (1/3)</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="1"/>
+        <v>322.11880000000002</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" ref="U7:U9" si="4">1/($Q$2+L7)</f>
+        <v>2.8792394569593146E-3</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" ref="V7:V9" si="5">1/($Q$2+M7)</f>
+        <v>2.877251226097451E-3</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" ref="W7:W9" si="6">1/($Q$2+N7)</f>
+        <v>2.8808984162376193E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>324.43700000000001</v>
       </c>
@@ -3254,8 +7377,44 @@
       <c r="H8">
         <v>321.17099999999999</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f>AVERAGE(G2:G51)</f>
+        <v>321.63581999999991</v>
+      </c>
+      <c r="L8">
+        <v>4.7</v>
+      </c>
+      <c r="M8">
+        <v>4.96</v>
+      </c>
+      <c r="N8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black (2/3)</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="1"/>
+        <v>321.63581999999991</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="4"/>
+        <v>2.8726226821023022E-3</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8704787734696803E-3</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="6"/>
+        <v>2.8751004056939179E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>324.435</v>
       </c>
@@ -3280,8 +7439,44 @@
       <c r="H9">
         <v>321.185</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9">
+        <f>AVERAGE(H2:H51)</f>
+        <v>321.16407999999996</v>
+      </c>
+      <c r="L9">
+        <v>5.36</v>
+      </c>
+      <c r="M9">
+        <v>5.83</v>
+      </c>
+      <c r="N9">
+        <v>5.13</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Black (3/3)</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="1"/>
+        <v>321.16407999999996</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="4"/>
+        <v>2.86718669405174E-3</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="5"/>
+        <v>2.8633281367745423E-3</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="6"/>
+        <v>2.8690787164453351E-3</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>324.46100000000001</v>
       </c>
@@ -3307,7 +7502,7 @@
         <v>321.15199999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>324.428</v>
       </c>
@@ -3333,7 +7528,7 @@
         <v>321.17500000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>324.40800000000002</v>
       </c>
@@ -3359,7 +7554,7 @@
         <v>321.17700000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>324.42</v>
       </c>
@@ -3385,7 +7580,7 @@
         <v>321.18099999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>324.40499999999997</v>
       </c>
@@ -3411,7 +7606,7 @@
         <v>321.178</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>324.45499999999998</v>
       </c>
@@ -3437,7 +7632,7 @@
         <v>321.17399999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>324.39100000000002</v>
       </c>
@@ -4373,37 +8568,7 @@
         <v>321.137</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S1:AA1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
